--- a/LGD_2006/20210729_LGD-2006_RawTypingFile.xlsx
+++ b/LGD_2006/20210729_LGD-2006_RawTypingFile.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Data\Sorting data\LGD_2006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Sorting data\sorting_data_curate\LGD_2006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D43E2C-AD83-4650-9169-13D602BC6283}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55CED3-1AF7-4D71-8203-EE1A1FC4E2C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{689F362E-0BEE-48A3-8822-00F0C195F399}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{689F362E-0BEE-48A3-8822-00F0C195F399}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
     <sheet name="Polychaeta" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Size!$A$1:$Q$377</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -566,11 +569,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A621665-98CB-4BE4-BFA2-309AAC1BD950}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q377"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O355" sqref="O355"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J264" sqref="J264:J357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -628,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" hidden="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -654,7 +658,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -680,7 +684,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" hidden="1">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -706,7 +710,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" hidden="1">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -732,7 +736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -758,7 +762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -784,7 +788,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" hidden="1">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -810,7 +814,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" hidden="1">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -836,7 +840,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" hidden="1">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -862,7 +866,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" hidden="1">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -888,7 +892,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" hidden="1">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -914,7 +918,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" hidden="1">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -940,7 +944,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" hidden="1">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -966,7 +970,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" hidden="1">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -992,7 +996,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" hidden="1">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" hidden="1">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" hidden="1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" hidden="1">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" hidden="1">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" hidden="1">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1152,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" hidden="1">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" hidden="1">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" hidden="1">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" hidden="1">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" hidden="1">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" hidden="1">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" hidden="1">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" hidden="1">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1489,7 +1493,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" hidden="1">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1541,7 +1545,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" hidden="1">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1645,7 +1649,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -1671,7 +1675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" hidden="1">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -1697,7 +1701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" hidden="1">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" hidden="1">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" hidden="1">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" hidden="1">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1810,7 +1814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" hidden="1">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" hidden="1">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" hidden="1">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1891,7 +1895,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" hidden="1">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1917,7 +1921,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2047,7 +2051,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" hidden="1">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" hidden="1">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2099,7 +2103,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" hidden="1">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" hidden="1">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -2151,7 +2155,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" hidden="1">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -2177,7 +2181,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" hidden="1">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -2281,7 +2285,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -2307,7 +2311,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -2333,7 +2337,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -2359,7 +2363,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" hidden="1">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" hidden="1">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -2541,7 +2545,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" hidden="1">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" hidden="1">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -2775,7 +2779,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -2827,7 +2831,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -2879,7 +2883,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" hidden="1">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" hidden="1">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" hidden="1">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -3087,7 +3091,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" hidden="1">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" hidden="1">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" hidden="1">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -3295,7 +3299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" hidden="1">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -3321,7 +3325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" hidden="1">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -3347,7 +3351,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" hidden="1">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -3373,7 +3377,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" hidden="1">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -3399,7 +3403,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" hidden="1">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -3425,7 +3429,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" hidden="1">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -3451,7 +3455,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" hidden="1">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" hidden="1">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -3503,7 +3507,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" hidden="1">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -3529,7 +3533,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" hidden="1">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -3555,7 +3559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" hidden="1">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" hidden="1">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -3607,7 +3611,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" hidden="1">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -3633,7 +3637,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" hidden="1">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -3685,7 +3689,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -3737,7 +3741,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" hidden="1">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -3763,7 +3767,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" hidden="1">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" hidden="1">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" hidden="1">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -3841,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" hidden="1">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -3867,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" hidden="1">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -3893,7 +3897,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" hidden="1">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -3919,7 +3923,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" hidden="1">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" hidden="1">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" hidden="1">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -3997,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" hidden="1">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -4023,7 +4027,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" hidden="1">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" hidden="1">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -4075,7 +4079,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" hidden="1">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -4101,7 +4105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" hidden="1">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -4127,7 +4131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" hidden="1">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -4153,7 +4157,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" hidden="1">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" hidden="1">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -4205,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" hidden="1">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -4231,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" hidden="1">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -4257,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" hidden="1">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -4283,7 +4287,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" hidden="1">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -4309,7 +4313,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" hidden="1">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -4335,7 +4339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" hidden="1">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" hidden="1">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -4393,7 +4397,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" hidden="1">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -4419,7 +4423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" hidden="1">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" hidden="1">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" hidden="1">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -4497,7 +4501,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" hidden="1">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -4523,7 +4527,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" hidden="1">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -4549,7 +4553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" hidden="1">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -4575,7 +4579,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" hidden="1">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" hidden="1">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -4633,7 +4637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" hidden="1">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -4662,7 +4666,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" hidden="1">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" hidden="1">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -4720,7 +4724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" hidden="1">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -4749,7 +4753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" hidden="1">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -4778,7 +4782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" hidden="1">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -4807,7 +4811,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" hidden="1">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -4836,7 +4840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" hidden="1">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -4865,7 +4869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" hidden="1">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" hidden="1">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -4923,7 +4927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" hidden="1">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -4952,7 +4956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" hidden="1">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -4978,7 +4982,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" hidden="1">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -5004,7 +5008,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" hidden="1">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -5030,7 +5034,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" hidden="1">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" hidden="1">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -5082,7 +5086,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" hidden="1">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -5108,7 +5112,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" hidden="1">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" hidden="1">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" hidden="1">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" hidden="1">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -5212,7 +5216,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" hidden="1">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -5264,7 +5268,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -5290,7 +5294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" hidden="1">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -5316,7 +5320,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -5342,7 +5346,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -5368,7 +5372,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" hidden="1">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -5394,7 +5398,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -5420,7 +5424,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" hidden="1">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -5446,7 +5450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" hidden="1">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -5472,7 +5476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" hidden="1">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -5498,7 +5502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" hidden="1">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -5524,7 +5528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" hidden="1">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -5550,7 +5554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" hidden="1">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -5576,7 +5580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" hidden="1">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -5602,7 +5606,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" hidden="1">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -5628,7 +5632,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" hidden="1">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -5654,7 +5658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -5680,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -5706,7 +5710,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -5732,7 +5736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -5758,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -5784,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -5836,7 +5840,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" hidden="1">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -5862,7 +5866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" hidden="1">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" hidden="1">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -5914,7 +5918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -5940,7 +5944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -5966,7 +5970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -6018,7 +6022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -6044,7 +6048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" hidden="1">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" hidden="1">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -6122,7 +6126,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -6148,7 +6152,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -6174,7 +6178,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -6200,7 +6204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" hidden="1">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -6226,7 +6230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -6252,7 +6256,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -6278,7 +6282,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" hidden="1">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -6330,7 +6334,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" hidden="1">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -6382,7 +6386,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" hidden="1">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -6408,7 +6412,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" hidden="1">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -6434,7 +6438,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" hidden="1">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" hidden="1">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -6486,7 +6490,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -6512,7 +6516,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -6538,7 +6542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -6590,7 +6594,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" hidden="1">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -6642,7 +6646,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" hidden="1">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -6694,7 +6698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" hidden="1">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" hidden="1">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -6746,7 +6750,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" hidden="1">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -6772,7 +6776,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" hidden="1">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -6798,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" hidden="1">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -6850,7 +6854,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" hidden="1">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -6876,7 +6880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -6928,7 +6932,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -6954,7 +6958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" hidden="1">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -7006,7 +7010,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" hidden="1">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -7032,7 +7036,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -7058,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -7084,7 +7088,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -7110,7 +7114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" hidden="1">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -7162,7 +7166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" hidden="1">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -7188,7 +7192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" hidden="1">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -7214,7 +7218,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" hidden="1">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" hidden="1">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -7266,7 +7270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" hidden="1">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -7292,7 +7296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" hidden="1">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -7318,7 +7322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" hidden="1">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" hidden="1">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -7370,7 +7374,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" hidden="1">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -7396,7 +7400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" hidden="1">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" hidden="1">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -7448,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" hidden="1">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -7474,7 +7478,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" hidden="1">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -7517,7 +7521,7 @@
         <v>48</v>
       </c>
       <c r="J264" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L264">
         <v>60</v>
@@ -7546,7 +7550,7 @@
         <v>48</v>
       </c>
       <c r="J265" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L265">
         <v>13</v>
@@ -7575,7 +7579,7 @@
         <v>48</v>
       </c>
       <c r="J266" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L266">
         <v>40</v>
@@ -7604,7 +7608,7 @@
         <v>48</v>
       </c>
       <c r="J267" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L267">
         <v>44</v>
@@ -7633,7 +7637,7 @@
         <v>48</v>
       </c>
       <c r="J268" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L268">
         <v>60</v>
@@ -7645,7 +7649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" hidden="1">
       <c r="A269" t="s">
         <v>17</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" hidden="1">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -7697,7 +7701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" hidden="1">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -7723,7 +7727,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" hidden="1">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -7749,7 +7753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" hidden="1">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -7775,7 +7779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" hidden="1">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -7801,7 +7805,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" hidden="1">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -7827,7 +7831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" hidden="1">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -7853,7 +7857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" hidden="1">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -7879,7 +7883,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" hidden="1">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -7905,7 +7909,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" hidden="1">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -7931,7 +7935,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" hidden="1">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -7957,7 +7961,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" hidden="1">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -7983,7 +7987,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" hidden="1">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -8009,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" hidden="1">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -8035,7 +8039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" hidden="1">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" hidden="1">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" hidden="1">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -8130,7 +8134,7 @@
         <v>48</v>
       </c>
       <c r="J287" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L287">
         <v>12</v>
@@ -8159,7 +8163,7 @@
         <v>48</v>
       </c>
       <c r="J288" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L288">
         <v>60</v>
@@ -8188,7 +8192,7 @@
         <v>48</v>
       </c>
       <c r="J289" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L289">
         <v>45</v>
@@ -8200,7 +8204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" hidden="1">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -8226,7 +8230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" hidden="1">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -8252,7 +8256,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" hidden="1">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -8278,7 +8282,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" hidden="1">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -8304,7 +8308,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" hidden="1">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -8330,7 +8334,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" hidden="1">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -8356,7 +8360,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" hidden="1">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -8382,7 +8386,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" hidden="1">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" hidden="1">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -8434,7 +8438,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" hidden="1">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -8460,7 +8464,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" hidden="1">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" hidden="1">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" hidden="1">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" hidden="1">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -8564,7 +8568,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" hidden="1">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -8590,7 +8594,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" hidden="1">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -8616,7 +8620,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" hidden="1">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -8642,7 +8646,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" hidden="1">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -8668,7 +8672,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" hidden="1">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -8694,7 +8698,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" hidden="1">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" hidden="1">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -8746,7 +8750,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" hidden="1">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -8772,7 +8776,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" hidden="1">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -8798,7 +8802,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" hidden="1">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -8824,7 +8828,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" hidden="1">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -8850,7 +8854,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" hidden="1">
       <c r="A315" t="s">
         <v>17</v>
       </c>
@@ -8876,7 +8880,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" hidden="1">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -8902,7 +8906,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" hidden="1">
       <c r="A317" t="s">
         <v>17</v>
       </c>
@@ -8928,7 +8932,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" hidden="1">
       <c r="A318" t="s">
         <v>17</v>
       </c>
@@ -8954,7 +8958,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" hidden="1">
       <c r="A319" t="s">
         <v>17</v>
       </c>
@@ -8980,7 +8984,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" hidden="1">
       <c r="A320" t="s">
         <v>17</v>
       </c>
@@ -9006,7 +9010,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" hidden="1">
       <c r="A321" t="s">
         <v>17</v>
       </c>
@@ -9032,7 +9036,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" hidden="1">
       <c r="A322" t="s">
         <v>17</v>
       </c>
@@ -9058,7 +9062,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" hidden="1">
       <c r="A323" t="s">
         <v>17</v>
       </c>
@@ -9084,7 +9088,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" hidden="1">
       <c r="A324" t="s">
         <v>17</v>
       </c>
@@ -9110,7 +9114,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" hidden="1">
       <c r="A325" t="s">
         <v>17</v>
       </c>
@@ -9136,7 +9140,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" hidden="1">
       <c r="A326" t="s">
         <v>17</v>
       </c>
@@ -9162,7 +9166,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" hidden="1">
       <c r="A327" t="s">
         <v>17</v>
       </c>
@@ -9188,7 +9192,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" hidden="1">
       <c r="A328" t="s">
         <v>17</v>
       </c>
@@ -9214,7 +9218,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" hidden="1">
       <c r="A329" t="s">
         <v>17</v>
       </c>
@@ -9240,7 +9244,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" hidden="1">
       <c r="A330" t="s">
         <v>17</v>
       </c>
@@ -9266,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" hidden="1">
       <c r="A331" t="s">
         <v>17</v>
       </c>
@@ -9292,7 +9296,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" hidden="1">
       <c r="A332" t="s">
         <v>17</v>
       </c>
@@ -9318,7 +9322,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" hidden="1">
       <c r="A333" t="s">
         <v>17</v>
       </c>
@@ -9344,7 +9348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" hidden="1">
       <c r="A334" t="s">
         <v>17</v>
       </c>
@@ -9370,7 +9374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" hidden="1">
       <c r="A335" t="s">
         <v>17</v>
       </c>
@@ -9396,7 +9400,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" hidden="1">
       <c r="A336" t="s">
         <v>17</v>
       </c>
@@ -9422,7 +9426,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" hidden="1">
       <c r="A337" t="s">
         <v>17</v>
       </c>
@@ -9448,7 +9452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" hidden="1">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -9474,7 +9478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" hidden="1">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -9500,7 +9504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" hidden="1">
       <c r="A340" t="s">
         <v>17</v>
       </c>
@@ -9526,7 +9530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" hidden="1">
       <c r="A341" t="s">
         <v>17</v>
       </c>
@@ -9552,7 +9556,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" hidden="1">
       <c r="A342" t="s">
         <v>17</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:13">
+    <row r="343" spans="1:13" hidden="1">
       <c r="A343" t="s">
         <v>17</v>
       </c>
@@ -9604,7 +9608,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="344" spans="1:13">
+    <row r="344" spans="1:13" hidden="1">
       <c r="A344" t="s">
         <v>17</v>
       </c>
@@ -9630,7 +9634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:13">
+    <row r="345" spans="1:13" hidden="1">
       <c r="A345" t="s">
         <v>17</v>
       </c>
@@ -9656,7 +9660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:13">
+    <row r="346" spans="1:13" hidden="1">
       <c r="A346" t="s">
         <v>17</v>
       </c>
@@ -9682,7 +9686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:13">
+    <row r="347" spans="1:13" hidden="1">
       <c r="A347" t="s">
         <v>17</v>
       </c>
@@ -9708,7 +9712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:13">
+    <row r="348" spans="1:13" hidden="1">
       <c r="A348" t="s">
         <v>17</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:13">
+    <row r="349" spans="1:13" hidden="1">
       <c r="A349" t="s">
         <v>17</v>
       </c>
@@ -9760,7 +9764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:13">
+    <row r="350" spans="1:13" hidden="1">
       <c r="A350" t="s">
         <v>17</v>
       </c>
@@ -9786,7 +9790,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="351" spans="1:13">
+    <row r="351" spans="1:13" hidden="1">
       <c r="A351" t="s">
         <v>17</v>
       </c>
@@ -9812,7 +9816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:13">
+    <row r="352" spans="1:13" hidden="1">
       <c r="A352" t="s">
         <v>17</v>
       </c>
@@ -9838,7 +9842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" hidden="1">
       <c r="A353" t="s">
         <v>17</v>
       </c>
@@ -9864,7 +9868,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" hidden="1">
       <c r="A354" t="s">
         <v>17</v>
       </c>
@@ -9890,7 +9894,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" hidden="1">
       <c r="A355" t="s">
         <v>17</v>
       </c>
@@ -9916,7 +9920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" hidden="1">
       <c r="A356" t="s">
         <v>17</v>
       </c>
@@ -9959,7 +9963,7 @@
         <v>51</v>
       </c>
       <c r="J357" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L357">
         <v>9</v>
@@ -9971,7 +9975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" hidden="1">
       <c r="A358" t="s">
         <v>17</v>
       </c>
@@ -9997,7 +10001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" hidden="1">
       <c r="A359" t="s">
         <v>17</v>
       </c>
@@ -10023,7 +10027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" hidden="1">
       <c r="A360" t="s">
         <v>17</v>
       </c>
@@ -10049,7 +10053,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" hidden="1">
       <c r="A361" t="s">
         <v>17</v>
       </c>
@@ -10075,7 +10079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" hidden="1">
       <c r="A362" t="s">
         <v>17</v>
       </c>
@@ -10101,7 +10105,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" hidden="1">
       <c r="A363" t="s">
         <v>17</v>
       </c>
@@ -10127,7 +10131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" hidden="1">
       <c r="A364" t="s">
         <v>17</v>
       </c>
@@ -10153,7 +10157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" hidden="1">
       <c r="A365" t="s">
         <v>17</v>
       </c>
@@ -10182,7 +10186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" hidden="1">
       <c r="A366" t="s">
         <v>17</v>
       </c>
@@ -10211,7 +10215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" hidden="1">
       <c r="A367" t="s">
         <v>17</v>
       </c>
@@ -10240,7 +10244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" hidden="1">
       <c r="A368" t="s">
         <v>17</v>
       </c>
@@ -10269,7 +10273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" hidden="1">
       <c r="A369" t="s">
         <v>17</v>
       </c>
@@ -10298,7 +10302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" hidden="1">
       <c r="A370" t="s">
         <v>17</v>
       </c>
@@ -10327,7 +10331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" hidden="1">
       <c r="A371" t="s">
         <v>17</v>
       </c>
@@ -10356,7 +10360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" hidden="1">
       <c r="A372" t="s">
         <v>17</v>
       </c>
@@ -10385,7 +10389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" hidden="1">
       <c r="A373" t="s">
         <v>17</v>
       </c>
@@ -10414,7 +10418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" hidden="1">
       <c r="A374" t="s">
         <v>17</v>
       </c>
@@ -10443,7 +10447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" hidden="1">
       <c r="A375" t="s">
         <v>17</v>
       </c>
@@ -10472,7 +10476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" hidden="1">
       <c r="A376" t="s">
         <v>17</v>
       </c>
@@ -10501,7 +10505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" hidden="1">
       <c r="A377" t="s">
         <v>17</v>
       </c>
@@ -10525,6 +10529,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q377" xr:uid="{D911314C-A4DB-4605-85D2-EB7DE2C8A6FB}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Bryozoa"/>
+        <filter val="Hydrozoa"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10533,7 +10545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DFB786-6539-4D18-BE9A-658939C363FD}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
